--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,33 +46,27 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -82,19 +76,28 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
@@ -103,160 +106,184 @@
     <t>great</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>pie</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>makes</t>
@@ -265,64 +292,52 @@
     <t>make</t>
   </si>
   <si>
-    <t>far</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>better</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -683,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.967741935483871</v>
@@ -802,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.675</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5283018867924528</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8668730650154799</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4883720930232558</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.46</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.7922077922077922</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.7694915254237288</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L8">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="M8">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3838383838383838</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3529411764705883</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,137 +1167,89 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2594594594594595</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.6875</v>
+      </c>
+      <c r="L11">
+        <v>44</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.6853932584269663</v>
-      </c>
-      <c r="L11">
-        <v>854</v>
-      </c>
-      <c r="M11">
-        <v>854</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2555555555555555</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="L12">
-        <v>29</v>
-      </c>
-      <c r="M12">
-        <v>29</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>96</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.6428571428571429</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.6363636363636364</v>
+        <v>0.6701444622792937</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>835</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6304347826086957</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.6227544910179641</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.609375</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.5915492957746479</v>
+        <v>0.6047904191616766</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5865384615384616</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1476,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1502,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5662650602409639</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1528,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5641025641025641</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L23">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1554,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1580,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5180722891566265</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1606,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4791666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1632,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4769230769230769</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1658,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4754098360655737</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1684,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4736842105263158</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1710,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4705882352941176</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1736,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4691358024691358</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1762,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4583333333333333</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L32">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1788,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>221</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4489795918367347</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1814,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.4444444444444444</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L34">
         <v>32</v>
@@ -1840,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.43</v>
+        <v>0.4485294117647059</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1866,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>57</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.4164383561643836</v>
+        <v>0.44</v>
       </c>
       <c r="L36">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1892,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>426</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.4126984126984127</v>
+        <v>0.4280155642023346</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1918,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.4085603112840467</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L38">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1944,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>152</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3888888888888889</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1970,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3846153846153846</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1996,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41">
+        <v>0.3841059602649007</v>
+      </c>
+      <c r="L41">
         <v>58</v>
       </c>
-      <c r="K41">
-        <v>0.3693693693693694</v>
-      </c>
-      <c r="L41">
-        <v>41</v>
-      </c>
       <c r="M41">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2022,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.3684210526315789</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L42">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2048,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.3609022556390977</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L43">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2074,47 +2041,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.3509933774834437</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L44">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.3421052631578947</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2126,73 +2093,73 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.3260869565217391</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M46">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.3181818181818182</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.3081896551724138</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L48">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2201,24 +2168,24 @@
         <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>642</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.3050397877984085</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L49">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2227,24 +2194,24 @@
         <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>524</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.2976190476190476</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2256,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.2842509603072984</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L51">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="M51">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2279,24 +2246,24 @@
         <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>559</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2695924764890282</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L52">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2308,47 +2275,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>233</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.2678571428571428</v>
+        <v>0.3114224137931034</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="M53">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>82</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.2673267326732673</v>
+        <v>0.3063660477453581</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2357,59 +2324,59 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>74</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2588555858310627</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L55">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="M55">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>272</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.2587719298245614</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L56">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M56">
         <v>118</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>338</v>
@@ -2417,68 +2384,68 @@
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.2452830188679245</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.2439024390243902</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>124</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.2348993288590604</v>
+        <v>0.25</v>
       </c>
       <c r="L59">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2490,21 +2457,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.2285714285714286</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2516,73 +2483,73 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.2177033492822966</v>
+        <v>0.2392638036809816</v>
       </c>
       <c r="L61">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M61">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>327</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.2031963470319635</v>
+        <v>0.2364130434782609</v>
       </c>
       <c r="L62">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M62">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N62">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>349</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.2018348623853211</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2594,21 +2561,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.1918819188191882</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L64">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2620,99 +2587,99 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1895910780669145</v>
+        <v>0.2219570405727924</v>
       </c>
       <c r="L65">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="M65">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>218</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.180327868852459</v>
+        <v>0.2209567198177677</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>100</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1791044776119403</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L67">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>165</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K68">
-        <v>0.1764705882352941</v>
+        <v>0.1903114186851211</v>
       </c>
       <c r="L68">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M68">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="N68">
         <v>0.96</v>
@@ -2724,21 +2691,21 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>336</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1722689075630252</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L69">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2750,125 +2717,125 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.1615120274914089</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L70">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>244</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1558441558441558</v>
+        <v>0.1731707317073171</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>130</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.1436781609195402</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>0.141025641025641</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M74">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2880,292 +2847,474 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K75">
-        <v>0.1289719626168224</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L75">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="M75">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>932</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>0.1174863387978142</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="L76">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M76">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>323</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.1168831168831169</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L77">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="N77">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>612</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.1102362204724409</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L78">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="M78">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="N78">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1017</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.1066176470588235</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.09057301293900184</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L80">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M80">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="N80">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>492</v>
+        <v>927</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K81">
-        <v>0.08611111111111111</v>
+        <v>0.13</v>
       </c>
       <c r="L81">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N81">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="O81">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>329</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.07989690721649484</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="L82">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M82">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N82">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.16</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>357</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.07930367504835589</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="L83">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M83">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N83">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>476</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.07334963325183375</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="L84">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M84">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="N84">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>379</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K85">
+        <v>0.1034180543382997</v>
+      </c>
+      <c r="L85">
+        <v>118</v>
+      </c>
+      <c r="M85">
+        <v>134</v>
+      </c>
+      <c r="N85">
+        <v>0.88</v>
+      </c>
+      <c r="O85">
+        <v>0.12</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86">
+        <v>0.08527131782945736</v>
+      </c>
+      <c r="L86">
+        <v>44</v>
+      </c>
+      <c r="M86">
+        <v>50</v>
+      </c>
+      <c r="N86">
+        <v>0.88</v>
+      </c>
+      <c r="O86">
+        <v>0.12</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K85">
-        <v>0.06157965194109773</v>
-      </c>
-      <c r="L85">
-        <v>46</v>
-      </c>
-      <c r="M85">
-        <v>66</v>
-      </c>
-      <c r="N85">
-        <v>0.7</v>
-      </c>
-      <c r="O85">
-        <v>0.3</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
+      <c r="K87">
+        <v>0.08461538461538462</v>
+      </c>
+      <c r="L87">
+        <v>33</v>
+      </c>
+      <c r="M87">
+        <v>37</v>
+      </c>
+      <c r="N87">
+        <v>0.89</v>
+      </c>
+      <c r="O87">
+        <v>0.11</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K88">
+        <v>0.07992565055762081</v>
+      </c>
+      <c r="L88">
+        <v>43</v>
+      </c>
+      <c r="M88">
+        <v>47</v>
+      </c>
+      <c r="N88">
+        <v>0.91</v>
+      </c>
+      <c r="O88">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K89">
+        <v>0.07334963325183375</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>35</v>
+      </c>
+      <c r="N89">
+        <v>0.86</v>
+      </c>
+      <c r="O89">
+        <v>0.14</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K90">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="L90">
+        <v>26</v>
+      </c>
+      <c r="M90">
+        <v>31</v>
+      </c>
+      <c r="N90">
+        <v>0.84</v>
+      </c>
+      <c r="O90">
+        <v>0.16</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K91">
+        <v>0.05622489959839357</v>
+      </c>
+      <c r="L91">
+        <v>42</v>
+      </c>
+      <c r="M91">
+        <v>62</v>
+      </c>
+      <c r="N91">
+        <v>0.68</v>
+      </c>
+      <c r="O91">
+        <v>0.32</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K92">
+        <v>0.03576341127922971</v>
+      </c>
+      <c r="L92">
+        <v>26</v>
+      </c>
+      <c r="M92">
+        <v>34</v>
+      </c>
+      <c r="N92">
+        <v>0.76</v>
+      </c>
+      <c r="O92">
+        <v>0.24</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
         <v>701</v>
       </c>
     </row>
